--- a/development/06-Truss calculations/T22.xlsx
+++ b/development/06-Truss calculations/T22.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -529,7 +529,7 @@
       </c>
       <c r="F3" s="2">
         <f>B4*B6</f>
-        <v>302.40000000000003</v>
+        <v>138.6</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -550,7 +550,7 @@
       </c>
       <c r="F4" s="2">
         <f>2*B3*POWER(B1,3)/12</f>
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>11.3</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -592,7 +592,7 @@
       </c>
       <c r="F6" s="2">
         <f>B1*B3*2</f>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -613,7 +613,7 @@
       </c>
       <c r="F7" s="2">
         <f>B4/F6 + F3*F5/F4</f>
-        <v>1.0050000000000001</v>
+        <v>0.7370000000000001</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -634,7 +634,7 @@
       </c>
       <c r="F8" s="2">
         <f>B5/F6</f>
-        <v>0.26041666666666669</v>
+        <v>0.18833333333333335</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="F9" s="2">
         <f>POWER(POWER(F7,2)+POWER(F8,2)*3,0.5)</f>
-        <v>1.101578649408808</v>
+        <v>0.8059636054644983</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="F11" s="2">
         <f>B4/(B1*B2) + F3*F5/F4</f>
-        <v>1.23</v>
+        <v>1.012</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="F12" s="2">
         <f>B5/F6</f>
-        <v>0.26041666666666669</v>
+        <v>0.18833333333333335</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="F13" s="2">
         <f>POWER(POWER(F11,2)+3*POWER(F12,2),0.5)</f>
-        <v>1.3100956151492658</v>
+        <v>1.0632743452812794</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>

--- a/development/06-Truss calculations/T22.xlsx
+++ b/development/06-Truss calculations/T22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>plate length</t>
   </si>
@@ -28,18 +28,12 @@
     <t>shear</t>
   </si>
   <si>
-    <t>eccentricity</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
     <t>tons</t>
   </si>
   <si>
-    <t>moment</t>
-  </si>
-  <si>
     <t>ton.cm</t>
   </si>
   <si>
@@ -95,6 +89,15 @@
   </si>
   <si>
     <t>gusset Plate design and its weld</t>
+  </si>
+  <si>
+    <t>normal eccentricity</t>
+  </si>
+  <si>
+    <t>shear eccentricity</t>
+  </si>
+  <si>
+    <t>moment due to tension</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,26 +492,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -519,20 +522,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <f>B4*B6</f>
-        <v>138.6</v>
+        <f>B4*B6-B5*B7</f>
+        <v>-231</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -540,20 +543,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <f>2*B3*POWER(B1,3)/12</f>
-        <v>4500</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -561,148 +564,157 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>11.3</v>
+        <v>15.5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <f>B1/2</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <f>B1*B3*2</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>5.2</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
-        <f>B4/F6 + F3*F5/F4</f>
-        <v>0.7370000000000001</v>
+        <f>ABS(B4/F6 + F3*F5/F4)</f>
+        <v>0.72875000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
         <f>B5/F6</f>
-        <v>0.18833333333333335</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <f>POWER(POWER(F7,2)+POWER(F8,2)*3,0.5)</f>
-        <v>0.8059636054644983</v>
+        <v>0.99072968689749075</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF(OR(F7&gt;0.2*B7, F9&gt;1.1*0.2*B7), "not safe", "safe")</f>
+        <f>IF(OR(F7&gt;0.2*B8, F9&gt;1.1*0.2*B8), "not safe", "safe")</f>
         <v>safe</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
-        <f>B4/(B1*B2) + F3*F5/F4</f>
-        <v>1.012</v>
+        <f>ABS(B4/(B1*B2) + F3*F5/F4)</f>
+        <v>0.72875000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <f>B5/F6</f>
-        <v>0.18833333333333335</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <f>POWER(POWER(F11,2)+3*POWER(F12,2),0.5)</f>
-        <v>1.0632743452812794</v>
+        <v>0.99072968689749075</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(AND(F11&lt;0.58*B8, F13&lt;1.1*0.58*B8), "safe", "unsafe")</f>
+        <f>IF(AND(F11&lt;0.58*B9, F13&lt;1.1*0.58*B9), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
     </row>
